--- a/conditions/schedules/train_x_first/red_square_00/bottom_right/inputTrain_1.1.xlsx
+++ b/conditions/schedules/train_x_first/red_square_00/bottom_right/inputTrain_1.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giancarlodeiana/Desktop/g-casa_children_task/conditions/schedules/train_x_first/x_increasing_steps/top_right/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giancarlodeiana/Desktop/root_folder/g-casa_children_task/conditions/schedules/train_x_first/red_square_00/bottom_right/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF00B944-BC8B-8D4E-9424-49C6FD6D31DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938F2F2C-0075-5946-843C-DFA6882D2F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16060" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,7 +408,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I2">
         <v>30</v>
@@ -680,19 +680,19 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
       <c r="F9">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I9">
         <v>30</v>
@@ -776,19 +776,19 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I12">
         <v>30</v>
@@ -1032,19 +1032,19 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I20">
         <v>30</v>
@@ -1096,19 +1096,19 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I22">
         <v>30</v>
@@ -1288,19 +1288,19 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I28">
         <v>30</v>
